--- a/combined notes on spreadsheet.xlsx
+++ b/combined notes on spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF1373-18D4-094F-9016-812F6810EFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4366AC56-EB32-2945-9BFE-7DEE75BE9472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="640" windowWidth="20840" windowHeight="15820" activeTab="3" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28540" windowHeight="15760" activeTab="1" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Discrepant roles" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="946">
   <si>
     <t>84000 ID</t>
   </si>
@@ -2896,16 +2896,56 @@
   </si>
   <si>
     <t>https://lod.dila.edu.tw/resource.php?id=A000089</t>
+  </si>
+  <si>
+    <t>84000 IDs</t>
+  </si>
+  <si>
+    <t>eft:jinamitra-k-, eft:dzi-na-mi-tra-k-, eft:jinamitra</t>
+  </si>
+  <si>
+    <t>P8217 or P4255</t>
+  </si>
+  <si>
+    <t>eft:klu-i-rgyal-mtshan, eft:cog-ro-klu-i-rgyal-mtshan</t>
+  </si>
+  <si>
+    <t>eft:ban-de-dpal-gyi-lhun-po, eft:dpal-gyi-lhun-po, eft:palgyi-lh-npo</t>
+  </si>
+  <si>
+    <t>eft:ban-de-dpal-brtsegs, eft:ska-ba-dpal-brtsegs, eft:kawa-paltsek-under-the-name-paltsek-raksita-, eft:paltsek</t>
+  </si>
+  <si>
+    <t>P2584</t>
+  </si>
+  <si>
+    <t>eft:prajnavarman, eft:prajnavarma</t>
+  </si>
+  <si>
+    <t>eft:munivarman, eft:munivarma</t>
+  </si>
+  <si>
+    <t>eft:silendrabodhi, eft:surendrabodhi, eft:srilendrabodhi</t>
+  </si>
+  <si>
+    <t>eft:yesh-d-, eft:ye-shes-sde, eft:band-yesh-de, eft:zhang-yesh-d-, eft:yesh-d-ye-shes-sde-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2943,7 +2983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2952,6 +2992,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3284,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC99D1F8-999F-3945-A50E-6CC984F32136}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7195,8 +7236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34985B16-C92D-6243-8507-F700C41B3F78}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7718,8 +7759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9628BDC7-3621-5F4A-829E-B54540E4F224}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD42"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8451,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8492,9 +8533,6 @@
         <v>201</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8543,9 +8581,6 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8577,9 +8612,6 @@
         <v>149</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="6" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8781,9 +8813,6 @@
         <v>223</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8849,6 +8878,9 @@
         <v>229</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>903</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -14137,12 +14169,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B851C-DFC4-054E-B3B8-C10D47165789}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>941</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/combined notes on spreadsheet.xlsx
+++ b/combined notes on spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4366AC56-EB32-2945-9BFE-7DEE75BE9472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE093F-2BA9-034C-9EB6-907F0120295D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28540" windowHeight="15760" activeTab="1" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="2980" yWindow="500" windowWidth="28540" windowHeight="15760" activeTab="5" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Discrepant roles" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,12 @@
     <sheet name="Unmatched persons" sheetId="11" r:id="rId3"/>
     <sheet name="WD manually matched persons" sheetId="6" r:id="rId4"/>
     <sheet name="Unattributed works" sheetId="9" r:id="rId5"/>
-    <sheet name="Duplicate persons in 84000" sheetId="7" r:id="rId6"/>
+    <sheet name="Matchable works" sheetId="12" r:id="rId6"/>
+    <sheet name="Duplicate persons in 84000" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="discrepant_roles" localSheetId="0">'Discrepant roles'!$A$1:$G$169</definedName>
+    <definedName name="matchable_works" localSheetId="5">'Matchable works'!$A$1:$C$9</definedName>
     <definedName name="person_matches" localSheetId="1">'person matches'!$A$1:$C$46</definedName>
     <definedName name="unattributed_works" localSheetId="4">'Unattributed works'!$A$2:$B$618</definedName>
     <definedName name="unmatched_persons" localSheetId="2">'Unmatched persons'!$A$1:$E$42</definedName>
@@ -59,7 +61,16 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{1DE83B4D-3660-AA4C-A410-B026BF62B77D}" name="person_matches" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{864AC2DB-9350-8147-9314-692EE7F4ED10}" name="matchable_works" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/matchable_works.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{1DE83B4D-3660-AA4C-A410-B026BF62B77D}" name="person_matches" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/person_matches.csv" tab="0" comma="1">
       <textFields count="3">
         <textField/>
@@ -68,7 +79,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{37C99A76-8C07-DB48-8A64-28C41855029E}" name="unattributed_works" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{37C99A76-8C07-DB48-8A64-28C41855029E}" name="unattributed_works" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/unattributed_works.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -76,7 +87,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{803FC7B9-25D5-B941-AAC7-514D3FB39C36}" name="unmatched_persons" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" xr16:uid="{803FC7B9-25D5-B941-AAC7-514D3FB39C36}" name="unmatched_persons" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/unmatched_persons.csv" tab="0" comma="1">
       <textFields count="5">
         <textField/>
@@ -91,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="966">
   <si>
     <t>84000 ID</t>
   </si>
@@ -2889,9 +2900,6 @@
     <t>P8245</t>
   </si>
   <si>
-    <t>P8222?</t>
-  </si>
-  <si>
     <t>Note: this is ambiguous. I wonder if the BDRC entries refer to different people (one is Sanskrit, the other is Tibetan, but they translate to each other)</t>
   </si>
   <si>
@@ -2929,6 +2937,69 @@
   </si>
   <si>
     <t>eft:yesh-d-, eft:ye-shes-sde, eft:band-yesh-de, eft:zhang-yesh-d-, eft:yesh-d-ye-shes-sde-</t>
+  </si>
+  <si>
+    <t>eft:ye-shes-snying-po, eft:yesh-nyingpo, eft:t-jnanagarbha?</t>
+  </si>
+  <si>
+    <t>eft:jnanagarbha, eft:t-jnanagarbha?</t>
+  </si>
+  <si>
+    <t>eft:sarvajnadeva, eft:sarvanyadeva</t>
+  </si>
+  <si>
+    <t>matched_toh</t>
+  </si>
+  <si>
+    <t>unmatched_toh</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['914']</t>
+  </si>
+  <si>
+    <t>['140', '525']</t>
+  </si>
+  <si>
+    <t>['212']</t>
+  </si>
+  <si>
+    <t>['520', '980']</t>
+  </si>
+  <si>
+    <t>['628', '1093']</t>
+  </si>
+  <si>
+    <t>['312']</t>
+  </si>
+  <si>
+    <t>['617', '974']</t>
+  </si>
+  <si>
+    <t>['313']</t>
+  </si>
+  <si>
+    <t>['956']</t>
+  </si>
+  <si>
+    <t>['605']</t>
+  </si>
+  <si>
+    <t>['929']</t>
+  </si>
+  <si>
+    <t>['607']</t>
+  </si>
+  <si>
+    <t>['745']</t>
+  </si>
+  <si>
+    <t>['727', '1000']</t>
   </si>
 </sst>
 </file>
@@ -3015,15 +3086,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="person_matches" connectionId="2" xr16:uid="{B4056794-56FA-974E-9A45-60D1F1F9FDFD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="person_matches" connectionId="3" xr16:uid="{B4056794-56FA-974E-9A45-60D1F1F9FDFD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unmatched_persons" connectionId="4" xr16:uid="{0A59B576-64CE-8342-810B-AAEF7B04E879}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unmatched_persons" connectionId="5" xr16:uid="{0A59B576-64CE-8342-810B-AAEF7B04E879}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unattributed_works" connectionId="3" xr16:uid="{155A6B41-AA12-0D43-92CE-2969A2077D50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unattributed_works" connectionId="4" xr16:uid="{155A6B41-AA12-0D43-92CE-2969A2077D50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="matchable_works" connectionId="2" xr16:uid="{18D481BE-C3A0-6243-9500-94E05E87C16A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3325,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC99D1F8-999F-3945-A50E-6CC984F32136}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7236,8 +7311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34985B16-C92D-6243-8507-F700C41B3F78}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7759,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9628BDC7-3621-5F4A-829E-B54540E4F224}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8493,7 +8568,7 @@
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8595,24 +8670,24 @@
         <v>148</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6">
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>932</v>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -8878,13 +8953,13 @@
         <v>229</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>903</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8898,9 +8973,6 @@
         <v>231</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="4" t="s">
         <v>904</v>
       </c>
     </row>
@@ -9017,10 +9089,10 @@
         <v>178</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -9219,7 +9291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D42D2F-7C09-8C4B-80A2-50F96A5E96E4}">
   <dimension ref="A2:B618"/>
   <sheetViews>
-    <sheetView topLeftCell="A605" workbookViewId="0">
+    <sheetView topLeftCell="A340" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14168,11 +14240,127 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED61DB9-3361-5F41-BFCD-3A18FBDA530D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>956</v>
+      </c>
+      <c r="C5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>958</v>
+      </c>
+      <c r="C6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B851C-DFC4-054E-B3B8-C10D47165789}">
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14182,7 +14370,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -14190,7 +14378,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -14198,7 +14386,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -14206,7 +14394,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -14214,15 +14402,15 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>941</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -14230,7 +14418,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -14238,7 +14426,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -14246,7 +14434,31 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
         <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>

--- a/combined notes on spreadsheet.xlsx
+++ b/combined notes on spreadsheet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdewey/Development/code/84000-data-rdf/xml-parsing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE093F-2BA9-034C-9EB6-907F0120295D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905CF7BD-ED39-A84E-B3B8-1A6427ACD24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="500" windowWidth="28540" windowHeight="15760" activeTab="5" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
+    <workbookView xWindow="10060" yWindow="500" windowWidth="18740" windowHeight="15760" activeTab="3" xr2:uid="{AA1A54E2-02A9-434E-B49F-C824DE424E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Discrepant roles" sheetId="4" r:id="rId1"/>
     <sheet name="person matches" sheetId="8" r:id="rId2"/>
     <sheet name="Unmatched persons" sheetId="11" r:id="rId3"/>
-    <sheet name="WD manually matched persons" sheetId="6" r:id="rId4"/>
+    <sheet name="WD_person_matches" sheetId="6" r:id="rId4"/>
     <sheet name="Unattributed works" sheetId="9" r:id="rId5"/>
     <sheet name="Matchable works" sheetId="12" r:id="rId6"/>
     <sheet name="Duplicate persons in 84000" sheetId="7" r:id="rId7"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="964">
   <si>
     <t>84000 ID</t>
   </si>
@@ -869,12 +869,6 @@
     <t>toh</t>
   </si>
   <si>
-    <t>84000 id</t>
-  </si>
-  <si>
-    <t>BDRC  id</t>
-  </si>
-  <si>
     <t>kha che'i mkhan po sarba dz+nyA de ba, 'mkhan po sarba dz+nyA de ba/', 'sarvajñādeva'</t>
   </si>
   <si>
@@ -2912,9 +2906,6 @@
     <t>eft:jinamitra-k-, eft:dzi-na-mi-tra-k-, eft:jinamitra</t>
   </si>
   <si>
-    <t>P8217 or P4255</t>
-  </si>
-  <si>
     <t>eft:klu-i-rgyal-mtshan, eft:cog-ro-klu-i-rgyal-mtshan</t>
   </si>
   <si>
@@ -3000,6 +2991,9 @@
   </si>
   <si>
     <t>['727', '1000']</t>
+  </si>
+  <si>
+    <t>BDRC  ID</t>
   </si>
 </sst>
 </file>
@@ -7311,7 +7305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34985B16-C92D-6243-8507-F700C41B3F78}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -7866,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>
@@ -8565,10 +8559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8AC6A-C797-F64E-A13A-B195FE9524EC}">
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8579,27 +8573,27 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F1" t="s">
         <v>256</v>
       </c>
-      <c r="F1" t="s">
-        <v>258</v>
-      </c>
       <c r="G1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>140</v>
@@ -8625,7 +8619,7 @@
         <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -8639,10 +8633,10 @@
         <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8670,7 +8664,7 @@
         <v>148</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>204</v>
@@ -8701,10 +8695,10 @@
         <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -8721,7 +8715,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -8738,7 +8732,7 @@
         <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -8752,10 +8746,10 @@
         <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -8769,10 +8763,10 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -8789,7 +8783,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -8803,10 +8797,10 @@
         <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -8820,10 +8814,10 @@
         <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F15" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -8840,7 +8834,7 @@
         <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -8857,7 +8851,7 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -8871,10 +8865,10 @@
         <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8902,10 +8896,10 @@
         <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -8922,7 +8916,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -8936,13 +8930,13 @@
         <v>227</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>163</v>
       </c>
@@ -8952,334 +8946,348 @@
       <c r="D23" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>932</v>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
+        <v>163</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4">
         <v>164</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>175</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>905</v>
+      <c r="E25" s="4" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>907</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>905</v>
       </c>
       <c r="F28" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>238</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>176</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>240</v>
       </c>
-      <c r="E30" t="s">
-        <v>911</v>
-      </c>
-      <c r="F30" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
+      <c r="E31" t="s">
+        <v>909</v>
+      </c>
+      <c r="F31" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
         <v>242</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E32" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>309</v>
-      </c>
-      <c r="C32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>914</v>
-      </c>
-      <c r="F33" t="s">
-        <v>915</v>
+        <v>61</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="F34" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F35" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>920</v>
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>916</v>
       </c>
       <c r="F36" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" t="s">
-        <v>922</v>
+        <v>189</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="F37" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F38" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>926</v>
+        <v>247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>922</v>
+      </c>
+      <c r="F39" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>850</v>
+        <v>544</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" t="s">
-        <v>927</v>
-      </c>
-      <c r="F40" t="s">
-        <v>928</v>
+        <v>249</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>725</v>
+        <v>850</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>925</v>
       </c>
       <c r="F41" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
+        <v>725</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>747</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>199</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>253</v>
       </c>
-      <c r="E42" t="s">
-        <v>931</v>
-      </c>
-      <c r="F42" t="s">
-        <v>930</v>
+      <c r="E43" t="s">
+        <v>929</v>
+      </c>
+      <c r="F43" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -9311,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9319,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9327,7 +9335,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9335,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -9343,7 +9351,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9351,7 +9359,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9359,7 +9367,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -9367,7 +9375,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -9375,7 +9383,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -9383,7 +9391,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9391,7 +9399,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -9399,7 +9407,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -9407,7 +9415,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -9415,7 +9423,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -9423,7 +9431,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9431,7 +9439,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9439,7 +9447,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -9447,7 +9455,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -9455,7 +9463,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -9463,7 +9471,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -9471,7 +9479,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -9479,7 +9487,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -9487,7 +9495,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -9495,7 +9503,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -9503,7 +9511,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -9511,7 +9519,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -9519,7 +9527,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -9527,7 +9535,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -9535,7 +9543,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -9543,7 +9551,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9551,7 +9559,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -9559,7 +9567,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -9567,7 +9575,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -9575,7 +9583,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -9583,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -9591,7 +9599,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -9599,7 +9607,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -9607,7 +9615,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -9615,7 +9623,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -9623,7 +9631,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -9631,7 +9639,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -9639,7 +9647,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -9647,7 +9655,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -9655,7 +9663,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -9663,7 +9671,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -9671,7 +9679,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -9679,7 +9687,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -9687,7 +9695,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -9695,7 +9703,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -9703,7 +9711,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -9711,7 +9719,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -9719,7 +9727,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -9727,7 +9735,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -9735,7 +9743,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -9743,7 +9751,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -9751,7 +9759,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -9759,7 +9767,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -9767,7 +9775,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -9775,7 +9783,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -9783,7 +9791,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -9791,7 +9799,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -9799,7 +9807,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -9807,7 +9815,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -9815,7 +9823,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -9823,7 +9831,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -9831,7 +9839,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -9839,7 +9847,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -9847,7 +9855,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -9855,7 +9863,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -9863,7 +9871,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -9871,7 +9879,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -9879,7 +9887,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -9887,7 +9895,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -9895,7 +9903,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -9903,7 +9911,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -9911,7 +9919,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -9919,7 +9927,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -9927,7 +9935,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -9935,7 +9943,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -9943,7 +9951,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -9951,7 +9959,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -9959,7 +9967,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -9967,7 +9975,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -9975,7 +9983,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -9983,7 +9991,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -9991,7 +9999,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -9999,7 +10007,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -10007,7 +10015,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -10015,7 +10023,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -10023,7 +10031,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -10031,7 +10039,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -10039,7 +10047,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -10047,7 +10055,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -10055,7 +10063,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -10063,7 +10071,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -10071,7 +10079,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -10079,7 +10087,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -10087,7 +10095,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -10095,7 +10103,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -10103,7 +10111,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -10111,7 +10119,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -10119,7 +10127,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -10127,7 +10135,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -10135,7 +10143,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -10143,7 +10151,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -10151,7 +10159,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -10159,7 +10167,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -10167,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -10175,7 +10183,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -10183,7 +10191,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -10191,7 +10199,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -10199,7 +10207,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -10207,7 +10215,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -10215,7 +10223,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -10223,7 +10231,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -10231,7 +10239,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -10239,7 +10247,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -10247,7 +10255,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -10255,7 +10263,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -10263,7 +10271,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -10271,7 +10279,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -10279,7 +10287,7 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -10287,7 +10295,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -10295,7 +10303,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -10303,7 +10311,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -10311,7 +10319,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -10319,7 +10327,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -10327,7 +10335,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -10335,7 +10343,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -10343,7 +10351,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -10351,7 +10359,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -10359,7 +10367,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -10367,7 +10375,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -10375,7 +10383,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -10383,7 +10391,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -10391,7 +10399,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -10399,7 +10407,7 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -10407,7 +10415,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -10415,7 +10423,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -10423,7 +10431,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -10431,7 +10439,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -10439,7 +10447,7 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -10447,7 +10455,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -10455,7 +10463,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -10463,7 +10471,7 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -10471,7 +10479,7 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -10479,7 +10487,7 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -10487,7 +10495,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -10495,7 +10503,7 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -10503,7 +10511,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -10511,7 +10519,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -10519,7 +10527,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -10527,7 +10535,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -10535,7 +10543,7 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -10543,7 +10551,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -10551,7 +10559,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -10559,7 +10567,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -10567,7 +10575,7 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -10575,7 +10583,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -10583,7 +10591,7 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -10591,7 +10599,7 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -10599,7 +10607,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -10607,7 +10615,7 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -10615,7 +10623,7 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -10623,7 +10631,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -10631,7 +10639,7 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -10639,7 +10647,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -10647,7 +10655,7 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -10655,7 +10663,7 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -10663,7 +10671,7 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -10671,7 +10679,7 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -10679,7 +10687,7 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -10687,7 +10695,7 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -10695,7 +10703,7 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -10703,7 +10711,7 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -10711,7 +10719,7 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -10719,7 +10727,7 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -10727,7 +10735,7 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -10735,7 +10743,7 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -10743,7 +10751,7 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -10751,7 +10759,7 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -10759,7 +10767,7 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -10767,7 +10775,7 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -10775,7 +10783,7 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -10783,7 +10791,7 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -10791,7 +10799,7 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -10799,7 +10807,7 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -10807,7 +10815,7 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -10815,7 +10823,7 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -10823,7 +10831,7 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -10831,7 +10839,7 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -10839,7 +10847,7 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -10847,7 +10855,7 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -10855,7 +10863,7 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -10863,7 +10871,7 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -10871,7 +10879,7 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -10879,7 +10887,7 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -10887,7 +10895,7 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -10895,7 +10903,7 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -10903,7 +10911,7 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -10911,7 +10919,7 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -10919,7 +10927,7 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -10927,7 +10935,7 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -10935,7 +10943,7 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -10943,7 +10951,7 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -10951,7 +10959,7 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -10959,7 +10967,7 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -10967,7 +10975,7 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -10975,7 +10983,7 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -10983,7 +10991,7 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -10991,7 +10999,7 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -10999,7 +11007,7 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -11007,7 +11015,7 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -11015,7 +11023,7 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -11023,7 +11031,7 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -11031,7 +11039,7 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -11039,7 +11047,7 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -11047,7 +11055,7 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -11055,7 +11063,7 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -11063,7 +11071,7 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -11071,7 +11079,7 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -11079,7 +11087,7 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -11087,7 +11095,7 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -11095,7 +11103,7 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -11103,7 +11111,7 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -11111,7 +11119,7 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -11119,7 +11127,7 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -11127,7 +11135,7 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -11135,7 +11143,7 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -11143,7 +11151,7 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -11151,7 +11159,7 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -11159,7 +11167,7 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -11167,7 +11175,7 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -11175,7 +11183,7 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -11183,7 +11191,7 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -11191,7 +11199,7 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -11199,7 +11207,7 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -11207,7 +11215,7 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -11215,7 +11223,7 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -11223,7 +11231,7 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -11231,7 +11239,7 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -11239,7 +11247,7 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -11247,7 +11255,7 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -11255,7 +11263,7 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -11263,7 +11271,7 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -11271,7 +11279,7 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -11279,7 +11287,7 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -11287,7 +11295,7 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -11295,7 +11303,7 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -11303,7 +11311,7 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -11311,7 +11319,7 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -11319,7 +11327,7 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -11327,7 +11335,7 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -11335,7 +11343,7 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -11343,7 +11351,7 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -11351,7 +11359,7 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -11359,7 +11367,7 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -11367,7 +11375,7 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -11375,7 +11383,7 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -11383,7 +11391,7 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -11391,7 +11399,7 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -11399,7 +11407,7 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -11407,7 +11415,7 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -11415,7 +11423,7 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -11423,7 +11431,7 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -11431,7 +11439,7 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -11439,7 +11447,7 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -11447,7 +11455,7 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -11455,7 +11463,7 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -11463,7 +11471,7 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -11471,7 +11479,7 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -11479,7 +11487,7 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -11487,7 +11495,7 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -11495,7 +11503,7 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -11503,7 +11511,7 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -11511,7 +11519,7 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -11519,7 +11527,7 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -11527,7 +11535,7 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -11535,7 +11543,7 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -11543,7 +11551,7 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -11551,7 +11559,7 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -11559,7 +11567,7 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -11567,7 +11575,7 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -11575,7 +11583,7 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -11583,7 +11591,7 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -11591,7 +11599,7 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -11599,7 +11607,7 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -11607,7 +11615,7 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -11615,7 +11623,7 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -11623,7 +11631,7 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -11631,7 +11639,7 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -11639,7 +11647,7 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -11647,7 +11655,7 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -11655,7 +11663,7 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -11663,7 +11671,7 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -11671,7 +11679,7 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -11679,7 +11687,7 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -11687,7 +11695,7 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -11695,7 +11703,7 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -11703,7 +11711,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -11711,7 +11719,7 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -11719,7 +11727,7 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -11727,7 +11735,7 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -11735,7 +11743,7 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -11743,7 +11751,7 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -11751,7 +11759,7 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -11759,7 +11767,7 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -11767,7 +11775,7 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -11775,7 +11783,7 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -11783,7 +11791,7 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -11791,7 +11799,7 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -11799,7 +11807,7 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -11807,7 +11815,7 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -11815,7 +11823,7 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -11823,7 +11831,7 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -11831,7 +11839,7 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -11839,7 +11847,7 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -11847,7 +11855,7 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -11855,7 +11863,7 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -11863,7 +11871,7 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -11871,7 +11879,7 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -11879,7 +11887,7 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -11887,7 +11895,7 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -11895,7 +11903,7 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -11903,7 +11911,7 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -11911,7 +11919,7 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -11919,7 +11927,7 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -11927,7 +11935,7 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -11935,7 +11943,7 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -11943,7 +11951,7 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -11951,7 +11959,7 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -11959,7 +11967,7 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -11967,7 +11975,7 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -11975,7 +11983,7 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -11983,7 +11991,7 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -11991,7 +11999,7 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -11999,7 +12007,7 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -12007,7 +12015,7 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -12015,7 +12023,7 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -12023,7 +12031,7 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -12031,7 +12039,7 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -12039,7 +12047,7 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -12047,7 +12055,7 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -12055,7 +12063,7 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -12063,7 +12071,7 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -12071,7 +12079,7 @@
         <v>345</v>
       </c>
       <c r="B348" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -12079,7 +12087,7 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -12087,7 +12095,7 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -12095,7 +12103,7 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -12103,7 +12111,7 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -12111,7 +12119,7 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -12119,7 +12127,7 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -12127,7 +12135,7 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -12135,7 +12143,7 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -12143,7 +12151,7 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -12151,7 +12159,7 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -12159,7 +12167,7 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -12167,7 +12175,7 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -12175,7 +12183,7 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -12183,7 +12191,7 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -12191,7 +12199,7 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -12199,7 +12207,7 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -12207,7 +12215,7 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -12215,7 +12223,7 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -12223,7 +12231,7 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -12231,7 +12239,7 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -12239,7 +12247,7 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -12247,7 +12255,7 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -12255,7 +12263,7 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12271,7 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -12271,7 +12279,7 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -12279,7 +12287,7 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -12287,7 +12295,7 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -12295,7 +12303,7 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -12303,7 +12311,7 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -12311,7 +12319,7 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -12319,7 +12327,7 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -12327,7 +12335,7 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12343,7 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -12343,7 +12351,7 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -12351,7 +12359,7 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -12359,7 +12367,7 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -12367,7 +12375,7 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -12375,7 +12383,7 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -12383,7 +12391,7 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -12391,7 +12399,7 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -12399,7 +12407,7 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12415,7 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -12415,7 +12423,7 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -12423,7 +12431,7 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -12431,7 +12439,7 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -12439,7 +12447,7 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -12447,7 +12455,7 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -12455,7 +12463,7 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -12463,7 +12471,7 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -12471,7 +12479,7 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -12479,7 +12487,7 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -12487,7 +12495,7 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -12495,7 +12503,7 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -12503,7 +12511,7 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -12511,7 +12519,7 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -12519,7 +12527,7 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -12527,7 +12535,7 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -12535,7 +12543,7 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -12543,7 +12551,7 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -12551,7 +12559,7 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -12559,7 +12567,7 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -12567,7 +12575,7 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -12575,7 +12583,7 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -12583,7 +12591,7 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -12591,7 +12599,7 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -12599,7 +12607,7 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -12607,7 +12615,7 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -12615,7 +12623,7 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -12623,7 +12631,7 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -12631,7 +12639,7 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -12639,7 +12647,7 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -12647,7 +12655,7 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -12655,7 +12663,7 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -12663,7 +12671,7 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -12671,7 +12679,7 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -12679,7 +12687,7 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -12687,7 +12695,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -12695,7 +12703,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -12703,7 +12711,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -12711,7 +12719,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -12719,7 +12727,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -12727,7 +12735,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -12735,7 +12743,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -12743,7 +12751,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -12751,7 +12759,7 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -12759,7 +12767,7 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -12767,7 +12775,7 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -12775,7 +12783,7 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -12783,7 +12791,7 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -12791,7 +12799,7 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -12799,7 +12807,7 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -12807,7 +12815,7 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -12815,7 +12823,7 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -12823,7 +12831,7 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -12831,7 +12839,7 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -12839,7 +12847,7 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -12847,7 +12855,7 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -12855,7 +12863,7 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -12863,7 +12871,7 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -12871,7 +12879,7 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -12879,7 +12887,7 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -12887,7 +12895,7 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -12895,7 +12903,7 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -12903,7 +12911,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -12911,7 +12919,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -12919,7 +12927,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -12927,7 +12935,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -12935,7 +12943,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -12943,7 +12951,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -12951,7 +12959,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -12959,7 +12967,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -12967,7 +12975,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -12975,7 +12983,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -12983,7 +12991,7 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -12991,7 +12999,7 @@
         <v>460</v>
       </c>
       <c r="B463" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -12999,7 +13007,7 @@
         <v>461</v>
       </c>
       <c r="B464" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -13007,7 +13015,7 @@
         <v>462</v>
       </c>
       <c r="B465" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -13015,7 +13023,7 @@
         <v>463</v>
       </c>
       <c r="B466" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -13023,7 +13031,7 @@
         <v>464</v>
       </c>
       <c r="B467" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -13031,7 +13039,7 @@
         <v>465</v>
       </c>
       <c r="B468" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -13039,7 +13047,7 @@
         <v>466</v>
       </c>
       <c r="B469" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -13047,7 +13055,7 @@
         <v>467</v>
       </c>
       <c r="B470" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -13055,7 +13063,7 @@
         <v>468</v>
       </c>
       <c r="B471" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -13063,7 +13071,7 @@
         <v>469</v>
       </c>
       <c r="B472" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -13071,7 +13079,7 @@
         <v>470</v>
       </c>
       <c r="B473" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -13079,7 +13087,7 @@
         <v>471</v>
       </c>
       <c r="B474" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -13087,7 +13095,7 @@
         <v>472</v>
       </c>
       <c r="B475" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -13095,7 +13103,7 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -13103,7 +13111,7 @@
         <v>474</v>
       </c>
       <c r="B477" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -13111,7 +13119,7 @@
         <v>475</v>
       </c>
       <c r="B478" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -13119,7 +13127,7 @@
         <v>476</v>
       </c>
       <c r="B479" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -13127,7 +13135,7 @@
         <v>477</v>
       </c>
       <c r="B480" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -13135,7 +13143,7 @@
         <v>478</v>
       </c>
       <c r="B481" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -13143,7 +13151,7 @@
         <v>479</v>
       </c>
       <c r="B482" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -13151,7 +13159,7 @@
         <v>480</v>
       </c>
       <c r="B483" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -13159,7 +13167,7 @@
         <v>481</v>
       </c>
       <c r="B484" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -13167,7 +13175,7 @@
         <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -13175,7 +13183,7 @@
         <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -13183,7 +13191,7 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -13191,7 +13199,7 @@
         <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -13199,7 +13207,7 @@
         <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -13207,7 +13215,7 @@
         <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -13215,7 +13223,7 @@
         <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -13223,7 +13231,7 @@
         <v>489</v>
       </c>
       <c r="B492" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -13231,7 +13239,7 @@
         <v>490</v>
       </c>
       <c r="B493" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -13239,7 +13247,7 @@
         <v>491</v>
       </c>
       <c r="B494" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -13247,7 +13255,7 @@
         <v>492</v>
       </c>
       <c r="B495" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -13255,7 +13263,7 @@
         <v>493</v>
       </c>
       <c r="B496" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -13263,7 +13271,7 @@
         <v>494</v>
       </c>
       <c r="B497" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -13271,7 +13279,7 @@
         <v>495</v>
       </c>
       <c r="B498" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -13279,7 +13287,7 @@
         <v>496</v>
       </c>
       <c r="B499" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -13287,7 +13295,7 @@
         <v>497</v>
       </c>
       <c r="B500" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -13295,7 +13303,7 @@
         <v>498</v>
       </c>
       <c r="B501" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -13303,7 +13311,7 @@
         <v>499</v>
       </c>
       <c r="B502" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -13311,7 +13319,7 @@
         <v>500</v>
       </c>
       <c r="B503" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -13319,7 +13327,7 @@
         <v>501</v>
       </c>
       <c r="B504" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -13327,7 +13335,7 @@
         <v>502</v>
       </c>
       <c r="B505" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -13335,7 +13343,7 @@
         <v>503</v>
       </c>
       <c r="B506" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -13343,7 +13351,7 @@
         <v>504</v>
       </c>
       <c r="B507" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -13351,7 +13359,7 @@
         <v>505</v>
       </c>
       <c r="B508" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -13359,7 +13367,7 @@
         <v>506</v>
       </c>
       <c r="B509" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -13367,7 +13375,7 @@
         <v>507</v>
       </c>
       <c r="B510" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -13375,7 +13383,7 @@
         <v>508</v>
       </c>
       <c r="B511" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -13383,7 +13391,7 @@
         <v>509</v>
       </c>
       <c r="B512" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -13391,7 +13399,7 @@
         <v>510</v>
       </c>
       <c r="B513" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -13399,7 +13407,7 @@
         <v>511</v>
       </c>
       <c r="B514" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -13407,7 +13415,7 @@
         <v>512</v>
       </c>
       <c r="B515" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -13415,7 +13423,7 @@
         <v>513</v>
       </c>
       <c r="B516" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -13423,7 +13431,7 @@
         <v>514</v>
       </c>
       <c r="B517" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -13431,7 +13439,7 @@
         <v>515</v>
       </c>
       <c r="B518" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -13439,7 +13447,7 @@
         <v>516</v>
       </c>
       <c r="B519" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -13447,7 +13455,7 @@
         <v>517</v>
       </c>
       <c r="B520" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -13455,7 +13463,7 @@
         <v>518</v>
       </c>
       <c r="B521" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -13463,7 +13471,7 @@
         <v>519</v>
       </c>
       <c r="B522" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -13471,7 +13479,7 @@
         <v>520</v>
       </c>
       <c r="B523" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -13479,7 +13487,7 @@
         <v>521</v>
       </c>
       <c r="B524" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -13487,7 +13495,7 @@
         <v>522</v>
       </c>
       <c r="B525" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -13495,7 +13503,7 @@
         <v>523</v>
       </c>
       <c r="B526" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -13503,7 +13511,7 @@
         <v>524</v>
       </c>
       <c r="B527" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -13511,7 +13519,7 @@
         <v>525</v>
       </c>
       <c r="B528" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -13519,7 +13527,7 @@
         <v>526</v>
       </c>
       <c r="B529" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -13527,7 +13535,7 @@
         <v>527</v>
       </c>
       <c r="B530" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -13535,7 +13543,7 @@
         <v>528</v>
       </c>
       <c r="B531" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -13543,7 +13551,7 @@
         <v>529</v>
       </c>
       <c r="B532" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -13551,7 +13559,7 @@
         <v>530</v>
       </c>
       <c r="B533" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -13559,7 +13567,7 @@
         <v>531</v>
       </c>
       <c r="B534" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -13567,7 +13575,7 @@
         <v>532</v>
       </c>
       <c r="B535" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -13575,7 +13583,7 @@
         <v>533</v>
       </c>
       <c r="B536" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -13583,7 +13591,7 @@
         <v>534</v>
       </c>
       <c r="B537" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -13591,7 +13599,7 @@
         <v>535</v>
       </c>
       <c r="B538" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -13599,7 +13607,7 @@
         <v>536</v>
       </c>
       <c r="B539" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -13607,7 +13615,7 @@
         <v>537</v>
       </c>
       <c r="B540" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -13615,7 +13623,7 @@
         <v>538</v>
       </c>
       <c r="B541" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -13623,7 +13631,7 @@
         <v>539</v>
       </c>
       <c r="B542" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -13631,7 +13639,7 @@
         <v>540</v>
       </c>
       <c r="B543" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -13639,7 +13647,7 @@
         <v>541</v>
       </c>
       <c r="B544" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -13647,7 +13655,7 @@
         <v>542</v>
       </c>
       <c r="B545" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -13655,7 +13663,7 @@
         <v>543</v>
       </c>
       <c r="B546" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -13663,7 +13671,7 @@
         <v>544</v>
       </c>
       <c r="B547" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -13671,7 +13679,7 @@
         <v>545</v>
       </c>
       <c r="B548" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -13679,7 +13687,7 @@
         <v>546</v>
       </c>
       <c r="B549" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -13687,7 +13695,7 @@
         <v>547</v>
       </c>
       <c r="B550" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -13695,7 +13703,7 @@
         <v>548</v>
       </c>
       <c r="B551" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -13703,7 +13711,7 @@
         <v>549</v>
       </c>
       <c r="B552" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -13711,7 +13719,7 @@
         <v>550</v>
       </c>
       <c r="B553" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -13719,7 +13727,7 @@
         <v>551</v>
       </c>
       <c r="B554" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -13727,7 +13735,7 @@
         <v>552</v>
       </c>
       <c r="B555" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -13735,7 +13743,7 @@
         <v>553</v>
       </c>
       <c r="B556" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -13743,7 +13751,7 @@
         <v>554</v>
       </c>
       <c r="B557" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -13751,7 +13759,7 @@
         <v>555</v>
       </c>
       <c r="B558" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -13759,7 +13767,7 @@
         <v>556</v>
       </c>
       <c r="B559" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -13767,7 +13775,7 @@
         <v>557</v>
       </c>
       <c r="B560" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -13775,7 +13783,7 @@
         <v>558</v>
       </c>
       <c r="B561" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -13783,7 +13791,7 @@
         <v>559</v>
       </c>
       <c r="B562" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -13791,7 +13799,7 @@
         <v>560</v>
       </c>
       <c r="B563" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -13799,7 +13807,7 @@
         <v>561</v>
       </c>
       <c r="B564" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -13807,7 +13815,7 @@
         <v>562</v>
       </c>
       <c r="B565" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -13815,7 +13823,7 @@
         <v>563</v>
       </c>
       <c r="B566" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -13823,7 +13831,7 @@
         <v>564</v>
       </c>
       <c r="B567" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -13831,7 +13839,7 @@
         <v>565</v>
       </c>
       <c r="B568" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -13839,7 +13847,7 @@
         <v>566</v>
       </c>
       <c r="B569" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -13847,7 +13855,7 @@
         <v>567</v>
       </c>
       <c r="B570" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -13855,7 +13863,7 @@
         <v>568</v>
       </c>
       <c r="B571" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -13863,7 +13871,7 @@
         <v>569</v>
       </c>
       <c r="B572" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -13871,7 +13879,7 @@
         <v>570</v>
       </c>
       <c r="B573" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -13879,7 +13887,7 @@
         <v>571</v>
       </c>
       <c r="B574" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -13887,7 +13895,7 @@
         <v>572</v>
       </c>
       <c r="B575" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -13895,7 +13903,7 @@
         <v>573</v>
       </c>
       <c r="B576" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -13903,7 +13911,7 @@
         <v>574</v>
       </c>
       <c r="B577" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -13911,7 +13919,7 @@
         <v>575</v>
       </c>
       <c r="B578" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -13919,7 +13927,7 @@
         <v>576</v>
       </c>
       <c r="B579" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -13927,7 +13935,7 @@
         <v>577</v>
       </c>
       <c r="B580" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -13935,7 +13943,7 @@
         <v>578</v>
       </c>
       <c r="B581" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -13943,7 +13951,7 @@
         <v>579</v>
       </c>
       <c r="B582" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -13951,7 +13959,7 @@
         <v>580</v>
       </c>
       <c r="B583" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -13959,7 +13967,7 @@
         <v>581</v>
       </c>
       <c r="B584" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -13967,7 +13975,7 @@
         <v>582</v>
       </c>
       <c r="B585" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -13975,7 +13983,7 @@
         <v>583</v>
       </c>
       <c r="B586" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -13983,7 +13991,7 @@
         <v>584</v>
       </c>
       <c r="B587" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -13991,7 +13999,7 @@
         <v>585</v>
       </c>
       <c r="B588" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -13999,7 +14007,7 @@
         <v>586</v>
       </c>
       <c r="B589" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -14007,7 +14015,7 @@
         <v>587</v>
       </c>
       <c r="B590" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
@@ -14015,7 +14023,7 @@
         <v>588</v>
       </c>
       <c r="B591" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -14023,7 +14031,7 @@
         <v>589</v>
       </c>
       <c r="B592" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -14031,7 +14039,7 @@
         <v>590</v>
       </c>
       <c r="B593" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -14039,7 +14047,7 @@
         <v>591</v>
       </c>
       <c r="B594" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -14047,7 +14055,7 @@
         <v>592</v>
       </c>
       <c r="B595" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -14055,7 +14063,7 @@
         <v>593</v>
       </c>
       <c r="B596" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -14063,7 +14071,7 @@
         <v>594</v>
       </c>
       <c r="B597" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -14071,7 +14079,7 @@
         <v>595</v>
       </c>
       <c r="B598" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -14079,7 +14087,7 @@
         <v>596</v>
       </c>
       <c r="B599" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -14087,7 +14095,7 @@
         <v>597</v>
       </c>
       <c r="B600" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -14095,7 +14103,7 @@
         <v>598</v>
       </c>
       <c r="B601" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -14103,7 +14111,7 @@
         <v>599</v>
       </c>
       <c r="B602" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -14111,7 +14119,7 @@
         <v>600</v>
       </c>
       <c r="B603" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -14119,7 +14127,7 @@
         <v>601</v>
       </c>
       <c r="B604" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -14127,7 +14135,7 @@
         <v>602</v>
       </c>
       <c r="B605" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -14135,7 +14143,7 @@
         <v>603</v>
       </c>
       <c r="B606" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -14143,7 +14151,7 @@
         <v>604</v>
       </c>
       <c r="B607" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -14151,7 +14159,7 @@
         <v>605</v>
       </c>
       <c r="B608" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -14159,7 +14167,7 @@
         <v>606</v>
       </c>
       <c r="B609" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -14167,7 +14175,7 @@
         <v>607</v>
       </c>
       <c r="B610" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -14175,7 +14183,7 @@
         <v>608</v>
       </c>
       <c r="B611" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -14183,7 +14191,7 @@
         <v>609</v>
       </c>
       <c r="B612" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -14191,7 +14199,7 @@
         <v>610</v>
       </c>
       <c r="B613" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -14199,7 +14207,7 @@
         <v>611</v>
       </c>
       <c r="B614" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -14207,7 +14215,7 @@
         <v>612</v>
       </c>
       <c r="B615" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -14215,7 +14223,7 @@
         <v>613</v>
       </c>
       <c r="B616" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -14223,7 +14231,7 @@
         <v>614</v>
       </c>
       <c r="B617" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -14231,7 +14239,7 @@
         <v>615</v>
       </c>
       <c r="B618" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -14243,7 +14251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED61DB9-3361-5F41-BFCD-3A18FBDA530D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -14256,10 +14264,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -14267,10 +14275,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -14278,10 +14286,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14289,10 +14297,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -14300,10 +14308,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -14311,10 +14319,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C6" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -14322,10 +14330,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -14333,10 +14341,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -14344,10 +14352,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -14370,7 +14378,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -14378,7 +14386,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -14386,7 +14394,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -14394,7 +14402,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -14402,15 +14410,15 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -14418,7 +14426,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -14426,7 +14434,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -14434,7 +14442,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -14442,7 +14450,7 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -14450,7 +14458,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -14458,7 +14466,7 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
